--- a/Tabla videojuegos.xlsx
+++ b/Tabla videojuegos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Verde16\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Parcial SO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +598,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C2">

--- a/Tabla videojuegos.xlsx
+++ b/Tabla videojuegos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Nombre</t>
   </si>
@@ -216,16 +216,13 @@
     <t>Aventura</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>juego</t>
-  </si>
-  <si>
     <t>plataforma</t>
   </si>
   <si>
-    <t>Nombre_ID</t>
+    <t>Juego_ID</t>
+  </si>
+  <si>
+    <t>JxP_id</t>
   </si>
 </sst>
 </file>
@@ -563,9 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -579,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -692,9 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1180,21 +1173,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Tabla videojuegos.xlsx
+++ b/Tabla videojuegos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Juego" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1173,7 +1173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
